--- a/resource/Test Cases.xlsx
+++ b/resource/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1013\OneDrive\Desktop\Lincoln\693\Project\Selenium_learning\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1013\OneDrive\Desktop\Lincoln\693\Project\auto_testing_letcodewebapp\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3D579-5AB4-42C7-9B2A-AE8898E19E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8871B358-CBEC-4D92-A3ED-1111C802618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="48420" yWindow="2316" windowWidth="12624" windowHeight="6852" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,20 @@
     <sheet name="Check-out" sheetId="4" r:id="rId4"/>
     <sheet name="Login" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -635,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,6 +744,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4658,8 +4676,8 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4749,16 +4767,16 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="20.5" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">

--- a/resource/Test Cases.xlsx
+++ b/resource/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1013\OneDrive\Desktop\Lincoln\693\Project\auto_testing_letcodewebapp\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1013\OneDrive\Desktop\Lincoln\693\Project\Selenium_learning\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8871B358-CBEC-4D92-A3ED-1111C802618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3D579-5AB4-42C7-9B2A-AE8898E19E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="48420" yWindow="2316" windowWidth="12624" windowHeight="6852" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,8 @@
     <sheet name="Check-out" sheetId="4" r:id="rId4"/>
     <sheet name="Login" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -647,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,12 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4676,8 +4658,8 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4767,16 +4749,16 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="20.5" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
